--- a/Algoritma/2023/Awareness/output awareness.xlsx
+++ b/Algoritma/2023/Awareness/output awareness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t xml:space="preserve">Submission Date</t>
   </si>
@@ -665,9 +665,6 @@
     <t xml:space="preserve">Class Room</t>
   </si>
   <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIDY DANIEL ANTRAWARMAN</t>
   </si>
   <si>
@@ -689,9 +686,6 @@
     <t xml:space="preserve">Gshsbb</t>
   </si>
   <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMP Sekolah Besar</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
     <t xml:space="preserve">PROJECT LEADER</t>
   </si>
   <si>
-    <t xml:space="preserve">5154</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMP Special School</t>
   </si>
   <si>
@@ -731,9 +722,6 @@
     <t xml:space="preserve">DIREKTUR</t>
   </si>
   <si>
-    <t xml:space="preserve">4228</t>
-  </si>
-  <si>
     <t xml:space="preserve">ERNAWATI ALAN SAPUTRI</t>
   </si>
   <si>
@@ -755,9 +743,6 @@
     <t xml:space="preserve">INSTRUKTUR</t>
   </si>
   <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD Special School</t>
   </si>
   <si>
@@ -773,9 +758,6 @@
     <t xml:space="preserve">HUMAS / PUBLIC RELATION</t>
   </si>
   <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROJECT Y</t>
   </si>
   <si>
@@ -791,9 +773,6 @@
     <t xml:space="preserve">Reels</t>
   </si>
   <si>
-    <t xml:space="preserve">551</t>
-  </si>
-  <si>
     <t xml:space="preserve">&gt;3x</t>
   </si>
   <si>
@@ -842,12 +821,6 @@
     <t xml:space="preserve">009009</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ada</t>
   </si>
   <si>
@@ -869,12 +842,6 @@
     <t xml:space="preserve">FOUNDER</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hilo Poster Drawing Competition</t>
   </si>
   <si>
@@ -887,12 +854,6 @@
     <t xml:space="preserve">DOSEN</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nur Suci Irianti</t>
   </si>
   <si>
@@ -929,9 +890,6 @@
     <t xml:space="preserve">Nutrihub</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMA Prioritas</t>
   </si>
   <si>
@@ -951,9 +909,6 @@
   </si>
   <si>
     <t xml:space="preserve">KETUA PANITIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">AJUDAN</t>
@@ -974,10 +929,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1014,7 +967,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,10 +1254,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2855,8 +2808,8 @@
       <c r="T21" t="n">
         <v>500</v>
       </c>
-      <c r="U21" t="s">
-        <v>217</v>
+      <c r="U21" t="n">
+        <v>450</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -2886,19 +2839,19 @@
         <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>209</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I22" t="s">
         <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>44922</v>
@@ -2907,16 +2860,16 @@
         <v>36</v>
       </c>
       <c r="M22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" t="s">
         <v>221</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>222</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>223</v>
-      </c>
-      <c r="P22" t="s">
-        <v>224</v>
       </c>
       <c r="Q22" t="s">
         <v>70</v>
@@ -2930,8 +2883,8 @@
       <c r="T22" t="n">
         <v>2500</v>
       </c>
-      <c r="U22" t="s">
-        <v>225</v>
+      <c r="U22" t="n">
+        <v>2000</v>
       </c>
       <c r="V22"/>
       <c r="W22"/>
@@ -2967,13 +2920,13 @@
         <v>209</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I23" t="s">
         <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>44922</v>
@@ -2982,16 +2935,16 @@
         <v>36</v>
       </c>
       <c r="M23" t="s">
+        <v>226</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
         <v>228</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>229</v>
-      </c>
-      <c r="O23" t="s">
-        <v>230</v>
-      </c>
-      <c r="P23" t="s">
-        <v>231</v>
       </c>
       <c r="Q23" t="s">
         <v>70</v>
@@ -3005,8 +2958,8 @@
       <c r="T23" t="n">
         <v>6484</v>
       </c>
-      <c r="U23" t="s">
-        <v>232</v>
+      <c r="U23" t="n">
+        <v>5154</v>
       </c>
       <c r="V23"/>
       <c r="W23"/>
@@ -3042,13 +2995,13 @@
         <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I24" t="s">
         <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>44922</v>
@@ -3057,16 +3010,16 @@
         <v>36</v>
       </c>
       <c r="M24" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>234</v>
+      </c>
+      <c r="P24" t="s">
         <v>235</v>
-      </c>
-      <c r="N24" t="s">
-        <v>236</v>
-      </c>
-      <c r="O24" t="s">
-        <v>237</v>
-      </c>
-      <c r="P24" t="s">
-        <v>238</v>
       </c>
       <c r="Q24" t="s">
         <v>70</v>
@@ -3080,8 +3033,8 @@
       <c r="T24" t="n">
         <v>5000</v>
       </c>
-      <c r="U24" t="s">
-        <v>239</v>
+      <c r="U24" t="n">
+        <v>4228</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -3111,19 +3064,19 @@
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>209</v>
       </c>
       <c r="H25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>44922</v>
@@ -3132,16 +3085,16 @@
         <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q25" t="s">
         <v>70</v>
@@ -3155,8 +3108,8 @@
       <c r="T25" t="n">
         <v>250</v>
       </c>
-      <c r="U25" t="s">
-        <v>247</v>
+      <c r="U25" t="n">
+        <v>111</v>
       </c>
       <c r="V25"/>
       <c r="W25"/>
@@ -3192,13 +3145,13 @@
         <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
         <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>44915</v>
@@ -3207,16 +3160,16 @@
         <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s">
         <v>206</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q26" t="s">
         <v>70</v>
@@ -3230,8 +3183,8 @@
       <c r="T26" t="n">
         <v>250</v>
       </c>
-      <c r="U26" t="s">
-        <v>253</v>
+      <c r="U26" t="n">
+        <v>100</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -3267,13 +3220,13 @@
         <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
         <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>44917</v>
@@ -3282,13 +3235,13 @@
         <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -3300,19 +3253,19 @@
         <v>42</v>
       </c>
       <c r="S27" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="T27" t="n">
         <v>777</v>
       </c>
-      <c r="U27" t="s">
-        <v>259</v>
+      <c r="U27" t="n">
+        <v>551</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Z27"/>
       <c r="AA27" t="s">
@@ -3342,13 +3295,13 @@
         <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>44922</v>
@@ -3357,16 +3310,16 @@
         <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q28" t="s">
         <v>70</v>
@@ -3375,7 +3328,7 @@
         <v>118</v>
       </c>
       <c r="S28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="T28" t="n">
         <v>250</v>
@@ -3409,19 +3362,19 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H29" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>44922</v>
@@ -3430,16 +3383,16 @@
         <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q29" t="s">
         <v>70</v>
@@ -3454,14 +3407,14 @@
         <v>50</v>
       </c>
       <c r="U29"/>
-      <c r="V29" t="s">
-        <v>276</v>
-      </c>
-      <c r="W29" t="s">
-        <v>277</v>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s">
         <v>60</v>
@@ -3491,16 +3444,16 @@
         <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>44922</v>
@@ -3509,16 +3462,16 @@
         <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
@@ -3533,11 +3486,11 @@
         <v>250</v>
       </c>
       <c r="U30"/>
-      <c r="V30" t="s">
-        <v>285</v>
-      </c>
-      <c r="W30" t="s">
-        <v>286</v>
+      <c r="V30" t="n">
+        <v>22</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11</v>
       </c>
       <c r="X30" t="s">
         <v>101</v>
@@ -3570,16 +3523,16 @@
         <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>44918</v>
@@ -3588,16 +3541,16 @@
         <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
@@ -3612,14 +3565,14 @@
         <v>444</v>
       </c>
       <c r="U31"/>
-      <c r="V31" t="s">
-        <v>291</v>
-      </c>
-      <c r="W31" t="s">
-        <v>292</v>
+      <c r="V31" t="n">
+        <v>44</v>
+      </c>
+      <c r="W31" t="n">
+        <v>33</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y31" t="s">
         <v>44</v>
@@ -3646,19 +3599,19 @@
         <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H32" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>44922</v>
@@ -3667,16 +3620,16 @@
         <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q32" t="s">
         <v>41</v>
@@ -3691,14 +3644,14 @@
         <v>500</v>
       </c>
       <c r="U32"/>
-      <c r="V32" t="s">
-        <v>285</v>
-      </c>
-      <c r="W32" t="s">
-        <v>286</v>
+      <c r="V32" t="n">
+        <v>22</v>
+      </c>
+      <c r="W32" t="n">
+        <v>11</v>
       </c>
       <c r="X32" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s">
         <v>60</v>
@@ -3728,16 +3681,16 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>44916</v>
@@ -3746,16 +3699,16 @@
         <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P33" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="Q33" t="s">
         <v>70</v>
@@ -3764,20 +3717,20 @@
         <v>71</v>
       </c>
       <c r="S33" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="T33" t="n">
         <v>665</v>
       </c>
       <c r="U33"/>
-      <c r="V33" t="s">
-        <v>285</v>
-      </c>
-      <c r="W33" t="s">
-        <v>305</v>
+      <c r="V33" t="n">
+        <v>22</v>
+      </c>
+      <c r="W33" t="n">
+        <v>12</v>
       </c>
       <c r="X33" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y33" t="s">
         <v>44</v>
@@ -3804,19 +3757,19 @@
         <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H34" t="s">
         <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>44922</v>
@@ -3825,16 +3778,16 @@
         <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="P34" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="Q34" t="s">
         <v>70</v>
@@ -3849,14 +3802,14 @@
         <v>500</v>
       </c>
       <c r="U34"/>
-      <c r="V34" t="s">
-        <v>285</v>
-      </c>
-      <c r="W34" t="s">
-        <v>286</v>
+      <c r="V34" t="n">
+        <v>22</v>
+      </c>
+      <c r="W34" t="n">
+        <v>11</v>
       </c>
       <c r="X34" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y34" t="s">
         <v>60</v>
@@ -3883,19 +3836,19 @@
         <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>44916</v>
@@ -3904,16 +3857,16 @@
         <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="Q35" t="s">
         <v>70</v>
@@ -3928,11 +3881,11 @@
         <v>555</v>
       </c>
       <c r="U35"/>
-      <c r="V35" t="s">
-        <v>313</v>
-      </c>
-      <c r="W35" t="s">
-        <v>305</v>
+      <c r="V35" t="n">
+        <v>3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>12</v>
       </c>
       <c r="X35" t="s">
         <v>101</v>
@@ -3965,16 +3918,16 @@
         <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>44901</v>
@@ -3983,16 +3936,16 @@
         <v>36</v>
       </c>
       <c r="M36" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P36" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="Q36" t="s">
         <v>41</v>
@@ -4007,14 +3960,14 @@
         <v>888</v>
       </c>
       <c r="U36"/>
-      <c r="V36" t="s">
-        <v>285</v>
-      </c>
-      <c r="W36" t="s">
-        <v>305</v>
+      <c r="V36" t="n">
+        <v>22</v>
+      </c>
+      <c r="W36" t="n">
+        <v>12</v>
       </c>
       <c r="X36" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y36" t="s">
         <v>44</v>
@@ -4044,16 +3997,16 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H37" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>44909</v>
@@ -4062,16 +4015,16 @@
         <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="N37" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q37" t="s">
         <v>41</v>
@@ -4086,14 +4039,14 @@
         <v>999</v>
       </c>
       <c r="U37"/>
-      <c r="V37" t="s">
-        <v>285</v>
-      </c>
-      <c r="W37" t="s">
-        <v>277</v>
+      <c r="V37" t="n">
+        <v>22</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s">
         <v>44</v>
@@ -4120,19 +4073,19 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G38" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H38" t="s">
         <v>125</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>44916</v>
@@ -4141,16 +4094,16 @@
         <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q38" t="s">
         <v>70</v>
@@ -4165,14 +4118,14 @@
         <v>77</v>
       </c>
       <c r="U38"/>
-      <c r="V38" t="s">
-        <v>247</v>
-      </c>
-      <c r="W38" t="s">
-        <v>305</v>
+      <c r="V38" t="n">
+        <v>111</v>
+      </c>
+      <c r="W38" t="n">
+        <v>12</v>
       </c>
       <c r="X38" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Y38" t="s">
         <v>44</v>
